--- a/Deliverables/CT/USDM CT.xlsx
+++ b/Deliverables/CT/USDM CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Desktop\CDISC\DDF\DDF_Phase 2\CT Work Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAA167C-CCB7-47B3-9BE0-F0C7B4AC5542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268BE1FC-94CD-47DD-A329-2BF2FDE27EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="250" yWindow="70" windowWidth="16880" windowHeight="9830" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="410" windowWidth="18620" windowHeight="8730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1006">
   <si>
     <t>Code</t>
   </si>
@@ -3061,9 +3061,6 @@
     <t>Synonym(s)</t>
   </si>
   <si>
-    <t>Business Therapeutic Area</t>
-  </si>
-  <si>
     <t>CNEW</t>
   </si>
   <si>
@@ -3079,9 +3076,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>therapeuticArea</t>
-  </si>
-  <si>
     <t>C101302</t>
   </si>
   <si>
@@ -3109,13 +3103,13 @@
     <t>Variable of Interest</t>
   </si>
   <si>
+    <t>No changes in sprint 1</t>
+  </si>
+  <si>
     <t>Encounter</t>
   </si>
   <si>
     <t>Study Element</t>
-  </si>
-  <si>
-    <t>businessTherapeuticArea</t>
   </si>
   <si>
     <t>A criterion that establishes the beginning of a subject transition within a study workflow.</t>
@@ -3149,6 +3143,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3164,7 +3159,16 @@
     </r>
   </si>
   <si>
-    <t>No changes to existing terminology in sprint 1</t>
+    <t>businessTherapeuticAreas</t>
+  </si>
+  <si>
+    <t>therapeuticAreas</t>
+  </si>
+  <si>
+    <t>Therapeutic Areas</t>
+  </si>
+  <si>
+    <t>Business Therapeutic Areas</t>
   </si>
 </sst>
 </file>
@@ -3181,10 +3185,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3390,7 +3396,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3460,9 +3466,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3493,6 +3496,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3798,10 +3807,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>973</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -5165,12 +5174,12 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -9667,23 +9676,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>981</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>982</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>983</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>975</v>
@@ -9699,8 +9708,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>1001</v>
+      <c r="A2" s="24" t="s">
+        <v>999</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>45</v>
@@ -9708,29 +9717,29 @@
       <c r="C2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>991</v>
+      <c r="D2" s="26" t="s">
+        <v>989</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>979</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="H2" s="35" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>1001</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>323</v>
@@ -9738,176 +9747,176 @@
       <c r="C3" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>984</v>
+      <c r="D3" s="26" t="s">
+        <v>979</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>1003</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>987</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>974</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="27" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>974</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="27" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>994</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>987</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>974</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="27" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>994</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>974</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>994</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="27" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>990</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>974</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>987</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="28" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>994</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>990</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>974</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>988</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="28" t="s">
+      <c r="G8" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>991</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="31" t="s">
         <v>998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>995</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>974</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>987</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="28" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>995</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>990</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>974</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>988</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="28" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>992</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>974</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>993</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="32" t="s">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -9922,10 +9931,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9933,18 +9942,16 @@
     <col min="1" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
